--- a/Team-Data/2007-08/1-22-2007-08.xlsx
+++ b/Team-Data/2007-08/1-22-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -774,7 +841,7 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>2</v>
@@ -789,7 +856,7 @@
         <v>10</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>15</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>11.6</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -995,7 +1062,7 @@
         <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1153,13 +1220,13 @@
         <v>19</v>
       </c>
       <c r="AS4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1305,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
@@ -1335,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="AS5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT5" t="n">
         <v>7</v>
@@ -1362,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1487,13 +1554,13 @@
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
@@ -1511,7 +1578,7 @@
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>4.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1678,13 +1745,13 @@
         <v>5</v>
       </c>
       <c r="AL7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AM7" t="n">
         <v>19</v>
       </c>
       <c r="AN7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1720,7 +1787,7 @@
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA7" t="n">
         <v>14</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1848,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2088,7 @@
         <v>3</v>
       </c>
       <c r="AE9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF9" t="n">
         <v>5</v>
@@ -2030,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="AH9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX9" t="n">
         <v>12</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>14</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -2239,13 +2306,13 @@
         <v>14</v>
       </c>
       <c r="AQ10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR10" t="n">
         <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
@@ -2445,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ11" t="n">
         <v>6</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -2570,13 +2637,13 @@
         <v>17</v>
       </c>
       <c r="AF12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG12" t="n">
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2594,7 +2661,7 @@
         <v>3</v>
       </c>
       <c r="AN12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
         <v>15</v>
@@ -2618,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="AV12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2846,7 @@
         <v>27</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
@@ -2794,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="AT13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU13" t="n">
         <v>17</v>
@@ -2818,7 +2885,7 @@
         <v>13</v>
       </c>
       <c r="BB13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2958,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3152,13 +3219,13 @@
         <v>17</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS15" t="n">
         <v>8</v>
       </c>
       <c r="AT15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU15" t="n">
         <v>19</v>
@@ -3176,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-6.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>16</v>
@@ -3349,10 +3416,10 @@
         <v>14</v>
       </c>
       <c r="AW16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3414,40 +3481,40 @@
         <v>36.3</v>
       </c>
       <c r="J17" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
         <v>16</v>
       </c>
       <c r="N17" t="n">
-        <v>0.34</v>
+        <v>0.342</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.746</v>
+        <v>0.742</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S17" t="n">
         <v>28.6</v>
       </c>
       <c r="T17" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V17" t="n">
         <v>15.4</v>
@@ -3456,7 +3523,7 @@
         <v>6.8</v>
       </c>
       <c r="X17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y17" t="n">
         <v>5.5</v>
@@ -3468,25 +3535,25 @@
         <v>20.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>-6</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI17" t="n">
         <v>16</v>
@@ -3504,19 +3571,19 @@
         <v>24</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
       </c>
       <c r="AP17" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS17" t="n">
         <v>30</v>
@@ -3525,7 +3592,7 @@
         <v>27</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV17" t="n">
         <v>18</v>
@@ -3540,16 +3607,16 @@
         <v>25</v>
       </c>
       <c r="AZ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
         <v>20</v>
       </c>
       <c r="BB17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-9.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
       </c>
       <c r="F19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" t="n">
-        <v>0.439</v>
+        <v>0.45</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3781,7 +3848,7 @@
         <v>77.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L19" t="n">
         <v>5.5</v>
@@ -3790,31 +3857,31 @@
         <v>17</v>
       </c>
       <c r="N19" t="n">
-        <v>0.326</v>
+        <v>0.323</v>
       </c>
       <c r="O19" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="P19" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.717</v>
+        <v>0.72</v>
       </c>
       <c r="R19" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S19" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="T19" t="n">
-        <v>41.4</v>
+        <v>41.8</v>
       </c>
       <c r="U19" t="n">
         <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W19" t="n">
         <v>6.7</v>
@@ -3829,28 +3896,28 @@
         <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="AB19" t="n">
         <v>93.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.2</v>
+        <v>-5.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
         <v>19</v>
       </c>
-      <c r="AG19" t="n">
-        <v>20</v>
-      </c>
       <c r="AH19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,34 +3926,34 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>18</v>
       </c>
       <c r="AN19" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AU19" t="n">
         <v>5</v>
@@ -3898,10 +3965,10 @@
         <v>22</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3910,10 +3977,10 @@
         <v>4</v>
       </c>
       <c r="BB19" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4059,7 +4126,7 @@
         <v>30</v>
       </c>
       <c r="AQ20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR20" t="n">
         <v>16</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4250,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU21" t="n">
         <v>30</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -4572,16 +4639,16 @@
         <v>21</v>
       </c>
       <c r="AF23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG23" t="n">
         <v>24</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>23</v>
       </c>
       <c r="AH23" t="n">
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
         <v>12</v>
       </c>
       <c r="G24" t="n">
-        <v>0.714</v>
+        <v>0.707</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,7 +4755,7 @@
         <v>41.8</v>
       </c>
       <c r="J24" t="n">
-        <v>85.2</v>
+        <v>85.3</v>
       </c>
       <c r="K24" t="n">
         <v>0.49</v>
@@ -4700,34 +4767,34 @@
         <v>23.4</v>
       </c>
       <c r="N24" t="n">
-        <v>0.387</v>
+        <v>0.385</v>
       </c>
       <c r="O24" t="n">
-        <v>17.5</v>
+        <v>17.3</v>
       </c>
       <c r="P24" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.781</v>
+        <v>0.777</v>
       </c>
       <c r="R24" t="n">
         <v>8.9</v>
       </c>
       <c r="S24" t="n">
-        <v>32.4</v>
+        <v>32.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U24" t="n">
-        <v>27.5</v>
+        <v>27.6</v>
       </c>
       <c r="V24" t="n">
         <v>13.3</v>
       </c>
       <c r="W24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -4745,10 +4812,10 @@
         <v>110</v>
       </c>
       <c r="AC24" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
@@ -4778,16 +4845,16 @@
         <v>4</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR24" t="n">
         <v>30</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4805,7 +4872,7 @@
         <v>6</v>
       </c>
       <c r="AW24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>1.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4951,7 +5018,7 @@
         <v>24</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -5034,115 +5101,115 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="n">
         <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.45</v>
+        <v>0.436</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J26" t="n">
-        <v>78.3</v>
+        <v>78.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.46</v>
+        <v>0.457</v>
       </c>
       <c r="L26" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="M26" t="n">
-        <v>16.9</v>
+        <v>16.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.372</v>
+        <v>0.363</v>
       </c>
       <c r="O26" t="n">
         <v>21.6</v>
       </c>
       <c r="P26" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.8</v>
+        <v>0.799</v>
       </c>
       <c r="R26" t="n">
         <v>10</v>
       </c>
       <c r="S26" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T26" t="n">
-        <v>39.4</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>18.5</v>
+        <v>18.2</v>
       </c>
       <c r="V26" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AE26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF26" t="n">
         <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>25</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM26" t="n">
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AO26" t="n">
         <v>5</v>
@@ -5151,13 +5218,13 @@
         <v>8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AT26" t="n">
         <v>29</v>
@@ -5166,7 +5233,7 @@
         <v>29</v>
       </c>
       <c r="AV26" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW26" t="n">
         <v>7</v>
@@ -5181,10 +5248,10 @@
         <v>24</v>
       </c>
       <c r="BA26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC26" t="n">
         <v>19</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>5.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE27" t="n">
         <v>7</v>
@@ -5315,7 +5382,7 @@
         <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL27" t="n">
         <v>6</v>
@@ -5324,13 +5391,13 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ27" t="n">
         <v>18</v>
@@ -5342,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU27" t="n">
         <v>11</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.5</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5509,16 +5576,16 @@
         <v>21</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -5882,7 +5949,7 @@
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE31" t="n">
         <v>13</v>
@@ -6061,7 +6128,7 @@
         <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR31" t="n">
         <v>9</v>
@@ -6085,7 +6152,7 @@
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
@@ -6094,7 +6161,7 @@
         <v>26</v>
       </c>
       <c r="BB31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-22-2007-08</t>
+          <t>2008-01-22</t>
         </is>
       </c>
     </row>
